--- a/Test Plan/Patrick/8_7_to_13_Tests.xlsx
+++ b/Test Plan/Patrick/8_7_to_13_Tests.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Options" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'PriceCompare Test Plan'!$A$1:$F$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'PriceCompare Test Plan'!$A$1:$G$18</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -631,53 +631,53 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1518,7 +1518,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,70 +1535,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="22" t="s">
         <v>6</v>
       </c>
@@ -1607,25 +1607,25 @@
       <c r="A7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="23">
         <f>COUNTIF(E10:E17,"Y")/ROWS(E10:E17)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1648,7 +1648,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="52" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="53" t="s">
@@ -1666,9 +1666,9 @@
       <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="54"/>
-      <c r="C11" s="41"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="16" t="s">
         <v>42</v>
       </c>
@@ -1678,7 +1678,7 @@
       <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="55"/>
       <c r="C12" s="40"/>
       <c r="D12" s="16" t="s">
@@ -1690,7 +1690,7 @@
       <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="53" t="s">
         <v>33</v>
       </c>
@@ -1708,7 +1708,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="54"/>
       <c r="C14" s="40"/>
       <c r="D14" s="16" t="s">
@@ -1720,7 +1720,7 @@
       <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="54"/>
       <c r="C15" s="31" t="s">
         <v>39</v>
@@ -1734,7 +1734,7 @@
       <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="54"/>
       <c r="C16" s="39" t="s">
         <v>33</v>
@@ -1748,7 +1748,7 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="55"/>
       <c r="C17" s="40"/>
       <c r="D17" s="15" t="s">
@@ -1805,7 +1805,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1848,28 +1848,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <EmailTo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailHeaders xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <EmailSender xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailFrom xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailSubject xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailCc xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DACAFF6E33019349B93F2443E7DDCAB9" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8d807c2493d2c3d9870c0a58315e2726">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86a28fafe5915cae2a78c009e91e23ab" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2038,32 +2016,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94009DDD-981B-43C7-8CD0-85CDD138DBD0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{255CEA57-682A-4711-AA83-3EDFE4A0F805}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <EmailTo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <EmailHeaders xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <EmailSender xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <EmailFrom xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <EmailSubject xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <EmailCc xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07565EDF-20D7-4B2C-8D71-7F1FA2E59011}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2080,4 +2055,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{255CEA57-682A-4711-AA83-3EDFE4A0F805}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94009DDD-981B-43C7-8CD0-85CDD138DBD0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>